--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Bgn-Fgfr3.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Bgn-Fgfr3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,55 +528,55 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.86159016084883</v>
+        <v>38.718679</v>
       </c>
       <c r="H2">
-        <v>5.86159016084883</v>
+        <v>116.156037</v>
       </c>
       <c r="I2">
-        <v>0.002158233533980007</v>
+        <v>0.01404461724059496</v>
       </c>
       <c r="J2">
-        <v>0.002158233533980007</v>
+        <v>0.01404461724059496</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.440607762898742</v>
+        <v>2.619953333333334</v>
       </c>
       <c r="N2">
-        <v>0.440607762898742</v>
+        <v>7.85986</v>
       </c>
       <c r="O2">
-        <v>0.3035090278598324</v>
+        <v>0.6100029538328192</v>
       </c>
       <c r="P2">
-        <v>0.3035090278598324</v>
+        <v>0.6100029538328192</v>
       </c>
       <c r="Q2">
-        <v>2.58266212780088</v>
+        <v>101.4411321083133</v>
       </c>
       <c r="R2">
-        <v>2.58266212780088</v>
+        <v>912.97018897482</v>
       </c>
       <c r="S2">
-        <v>0.0006550433617927625</v>
+        <v>0.008567258002214266</v>
       </c>
       <c r="T2">
-        <v>0.0006550433617927625</v>
+        <v>0.008567258002214266</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,60 +590,60 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.86159016084883</v>
+        <v>38.718679</v>
       </c>
       <c r="H3">
-        <v>5.86159016084883</v>
+        <v>116.156037</v>
       </c>
       <c r="I3">
-        <v>0.002158233533980007</v>
+        <v>0.01404461724059496</v>
       </c>
       <c r="J3">
-        <v>0.002158233533980007</v>
+        <v>0.01404461724059496</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.01110445141544</v>
+        <v>0.5698483333333333</v>
       </c>
       <c r="N3">
-        <v>1.01110445141544</v>
+        <v>1.709545</v>
       </c>
       <c r="O3">
-        <v>0.6964909721401676</v>
+        <v>0.1326776176306101</v>
       </c>
       <c r="P3">
-        <v>0.6964909721401676</v>
+        <v>0.1326776176306101</v>
       </c>
       <c r="Q3">
-        <v>5.926679904007196</v>
+        <v>22.06377469701833</v>
       </c>
       <c r="R3">
-        <v>5.926679904007196</v>
+        <v>198.573972273165</v>
       </c>
       <c r="S3">
-        <v>0.001503190172187245</v>
+        <v>0.001863406356015933</v>
       </c>
       <c r="T3">
-        <v>0.001503190172187245</v>
+        <v>0.001863406356015933</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,55 +652,55 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2507.84114620291</v>
+        <v>38.718679</v>
       </c>
       <c r="H4">
-        <v>2507.84114620291</v>
+        <v>116.156037</v>
       </c>
       <c r="I4">
-        <v>0.9233854143849219</v>
+        <v>0.01404461724059496</v>
       </c>
       <c r="J4">
-        <v>0.9233854143849219</v>
+        <v>0.01404461724059496</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.440607762898742</v>
+        <v>1.105183</v>
       </c>
       <c r="N4">
-        <v>0.440607762898742</v>
+        <v>3.315549</v>
       </c>
       <c r="O4">
-        <v>0.3035090278598324</v>
+        <v>0.2573194285365706</v>
       </c>
       <c r="P4">
-        <v>0.3035090278598324</v>
+        <v>0.2573194285365706</v>
       </c>
       <c r="Q4">
-        <v>1104.974277133881</v>
+        <v>42.791225813257</v>
       </c>
       <c r="R4">
-        <v>1104.974277133881</v>
+        <v>385.121032319313</v>
       </c>
       <c r="S4">
-        <v>0.2802558094599162</v>
+        <v>0.003613952882364764</v>
       </c>
       <c r="T4">
-        <v>0.2802558094599162</v>
+        <v>0.003613952882364764</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,60 +714,60 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2507.84114620291</v>
+        <v>2511.398112333333</v>
       </c>
       <c r="H5">
-        <v>2507.84114620291</v>
+        <v>7534.194336999999</v>
       </c>
       <c r="I5">
-        <v>0.9233854143849219</v>
+        <v>0.9109718135392577</v>
       </c>
       <c r="J5">
-        <v>0.9233854143849219</v>
+        <v>0.9109718135392579</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>1.01110445141544</v>
+        <v>2.619953333333334</v>
       </c>
       <c r="N5">
-        <v>1.01110445141544</v>
+        <v>7.85986</v>
       </c>
       <c r="O5">
-        <v>0.6964909721401676</v>
+        <v>0.6100029538328192</v>
       </c>
       <c r="P5">
-        <v>0.6964909721401676</v>
+        <v>0.6100029538328192</v>
       </c>
       <c r="Q5">
-        <v>2535.689346368561</v>
+        <v>6579.745855734757</v>
       </c>
       <c r="R5">
-        <v>2535.689346368561</v>
+        <v>59217.71270161281</v>
       </c>
       <c r="S5">
-        <v>0.6431296049250058</v>
+        <v>0.5556954971173874</v>
       </c>
       <c r="T5">
-        <v>0.6431296049250058</v>
+        <v>0.5556954971173875</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -779,57 +779,57 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.15430652481486</v>
+        <v>2511.398112333333</v>
       </c>
       <c r="H6">
-        <v>3.15430652481486</v>
+        <v>7534.194336999999</v>
       </c>
       <c r="I6">
-        <v>0.001161413529689958</v>
+        <v>0.9109718135392577</v>
       </c>
       <c r="J6">
-        <v>0.001161413529689958</v>
+        <v>0.9109718135392579</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.440607762898742</v>
+        <v>0.5698483333333333</v>
       </c>
       <c r="N6">
-        <v>0.440607762898742</v>
+        <v>1.709545</v>
       </c>
       <c r="O6">
-        <v>0.3035090278598324</v>
+        <v>0.1326776176306101</v>
       </c>
       <c r="P6">
-        <v>0.3035090278598324</v>
+        <v>0.1326776176306101</v>
       </c>
       <c r="Q6">
-        <v>1.389811941395581</v>
+        <v>1431.116028649629</v>
       </c>
       <c r="R6">
-        <v>1.389811941395581</v>
+        <v>12880.04425784666</v>
       </c>
       <c r="S6">
-        <v>0.0003524994913394559</v>
+        <v>0.120865569949025</v>
       </c>
       <c r="T6">
-        <v>0.0003524994913394559</v>
+        <v>0.1208655699490251</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -841,57 +841,57 @@
         <v>23</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.15430652481486</v>
+        <v>2511.398112333333</v>
       </c>
       <c r="H7">
-        <v>3.15430652481486</v>
+        <v>7534.194336999999</v>
       </c>
       <c r="I7">
-        <v>0.001161413529689958</v>
+        <v>0.9109718135392577</v>
       </c>
       <c r="J7">
-        <v>0.001161413529689958</v>
+        <v>0.9109718135392579</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.01110445141544</v>
+        <v>1.105183</v>
       </c>
       <c r="N7">
-        <v>1.01110445141544</v>
+        <v>3.315549</v>
       </c>
       <c r="O7">
-        <v>0.6964909721401676</v>
+        <v>0.2573194285365706</v>
       </c>
       <c r="P7">
-        <v>0.6964909721401676</v>
+        <v>0.2573194285365706</v>
       </c>
       <c r="Q7">
-        <v>3.189333368369072</v>
+        <v>2775.55449998289</v>
       </c>
       <c r="R7">
-        <v>3.189333368369072</v>
+        <v>24979.99049984601</v>
       </c>
       <c r="S7">
-        <v>0.0008089140383505026</v>
+        <v>0.2344107464728452</v>
       </c>
       <c r="T7">
-        <v>0.0008089140383505026</v>
+        <v>0.2344107464728452</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,60 +900,60 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>199.063207891447</v>
+        <v>5.092134333333333</v>
       </c>
       <c r="H8">
-        <v>199.063207891447</v>
+        <v>15.276403</v>
       </c>
       <c r="I8">
-        <v>0.07329493855140831</v>
+        <v>0.001847094980935658</v>
       </c>
       <c r="J8">
-        <v>0.07329493855140831</v>
+        <v>0.001847094980935659</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.440607762898742</v>
+        <v>2.619953333333334</v>
       </c>
       <c r="N8">
-        <v>0.440607762898742</v>
+        <v>7.85986</v>
       </c>
       <c r="O8">
-        <v>0.3035090278598324</v>
+        <v>0.6100029538328192</v>
       </c>
       <c r="P8">
-        <v>0.3035090278598324</v>
+        <v>0.6100029538328192</v>
       </c>
       <c r="Q8">
-        <v>87.70879470449766</v>
+        <v>13.34115432039778</v>
       </c>
       <c r="R8">
-        <v>87.70879470449766</v>
+        <v>120.07038888358</v>
       </c>
       <c r="S8">
-        <v>0.02224567554678409</v>
+        <v>0.001126733394380526</v>
       </c>
       <c r="T8">
-        <v>0.02224567554678409</v>
+        <v>0.001126733394380526</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,55 +962,303 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>5.092134333333333</v>
+      </c>
+      <c r="H9">
+        <v>15.276403</v>
+      </c>
+      <c r="I9">
+        <v>0.001847094980935658</v>
+      </c>
+      <c r="J9">
+        <v>0.001847094980935659</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.5698483333333333</v>
+      </c>
+      <c r="N9">
+        <v>1.709545</v>
+      </c>
+      <c r="O9">
+        <v>0.1326776176306101</v>
+      </c>
+      <c r="P9">
+        <v>0.1326776176306101</v>
+      </c>
+      <c r="Q9">
+        <v>2.901744262959444</v>
+      </c>
+      <c r="R9">
+        <v>26.115698366635</v>
+      </c>
+      <c r="S9">
+        <v>0.0002450681616080002</v>
+      </c>
+      <c r="T9">
+        <v>0.0002450681616080003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>199.063207891447</v>
-      </c>
-      <c r="H9">
-        <v>199.063207891447</v>
-      </c>
-      <c r="I9">
-        <v>0.07329493855140831</v>
-      </c>
-      <c r="J9">
-        <v>0.07329493855140831</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>1.01110445141544</v>
-      </c>
-      <c r="N9">
-        <v>1.01110445141544</v>
-      </c>
-      <c r="O9">
-        <v>0.6964909721401676</v>
-      </c>
-      <c r="P9">
-        <v>0.6964909721401676</v>
-      </c>
-      <c r="Q9">
-        <v>201.2736956120792</v>
-      </c>
-      <c r="R9">
-        <v>201.2736956120792</v>
-      </c>
-      <c r="S9">
-        <v>0.05104926300462423</v>
-      </c>
-      <c r="T9">
-        <v>0.05104926300462423</v>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>5.092134333333333</v>
+      </c>
+      <c r="H10">
+        <v>15.276403</v>
+      </c>
+      <c r="I10">
+        <v>0.001847094980935658</v>
+      </c>
+      <c r="J10">
+        <v>0.001847094980935659</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1.105183</v>
+      </c>
+      <c r="N10">
+        <v>3.315549</v>
+      </c>
+      <c r="O10">
+        <v>0.2573194285365706</v>
+      </c>
+      <c r="P10">
+        <v>0.2573194285365706</v>
+      </c>
+      <c r="Q10">
+        <v>5.627740298916334</v>
+      </c>
+      <c r="R10">
+        <v>50.649662690247</v>
+      </c>
+      <c r="S10">
+        <v>0.0004752934249471314</v>
+      </c>
+      <c r="T10">
+        <v>0.0004752934249471315</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>201.6251223333333</v>
+      </c>
+      <c r="H11">
+        <v>604.875367</v>
+      </c>
+      <c r="I11">
+        <v>0.07313647423921157</v>
+      </c>
+      <c r="J11">
+        <v>0.07313647423921157</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>2.619953333333334</v>
+      </c>
+      <c r="N11">
+        <v>7.85986</v>
+      </c>
+      <c r="O11">
+        <v>0.6100029538328192</v>
+      </c>
+      <c r="P11">
+        <v>0.6100029538328192</v>
+      </c>
+      <c r="Q11">
+        <v>528.2484113409579</v>
+      </c>
+      <c r="R11">
+        <v>4754.23570206862</v>
+      </c>
+      <c r="S11">
+        <v>0.04461346531883695</v>
+      </c>
+      <c r="T11">
+        <v>0.04461346531883695</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>201.6251223333333</v>
+      </c>
+      <c r="H12">
+        <v>604.875367</v>
+      </c>
+      <c r="I12">
+        <v>0.07313647423921157</v>
+      </c>
+      <c r="J12">
+        <v>0.07313647423921157</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.5698483333333333</v>
+      </c>
+      <c r="N12">
+        <v>1.709545</v>
+      </c>
+      <c r="O12">
+        <v>0.1326776176306101</v>
+      </c>
+      <c r="P12">
+        <v>0.1326776176306101</v>
+      </c>
+      <c r="Q12">
+        <v>114.8957399197794</v>
+      </c>
+      <c r="R12">
+        <v>1034.061659278015</v>
+      </c>
+      <c r="S12">
+        <v>0.009703573163961076</v>
+      </c>
+      <c r="T12">
+        <v>0.009703573163961076</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>201.6251223333333</v>
+      </c>
+      <c r="H13">
+        <v>604.875367</v>
+      </c>
+      <c r="I13">
+        <v>0.07313647423921157</v>
+      </c>
+      <c r="J13">
+        <v>0.07313647423921157</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1.105183</v>
+      </c>
+      <c r="N13">
+        <v>3.315549</v>
+      </c>
+      <c r="O13">
+        <v>0.2573194285365706</v>
+      </c>
+      <c r="P13">
+        <v>0.2573194285365706</v>
+      </c>
+      <c r="Q13">
+        <v>222.8326575757203</v>
+      </c>
+      <c r="R13">
+        <v>2005.493918181483</v>
+      </c>
+      <c r="S13">
+        <v>0.01881943575641354</v>
+      </c>
+      <c r="T13">
+        <v>0.01881943575641354</v>
       </c>
     </row>
   </sheetData>
